--- a/Data/aearep-799/candidatepackages.xlsx
+++ b/Data/aearep-799/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,9 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
@@ -37,24 +34,24 @@
     <t>missings</t>
   </si>
   <si>
+    <t>synth</t>
+  </si>
+  <si>
+    <t>geodist</t>
+  </si>
+  <si>
     <t>gtools</t>
   </si>
   <si>
-    <t>synth</t>
-  </si>
-  <si>
-    <t>geodist</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
+    <t>rd</t>
+  </si>
+  <si>
     <t>table1</t>
   </si>
   <si>
-    <t>rd</t>
-  </si>
-  <si>
     <t>parallel</t>
   </si>
   <si>
@@ -64,219 +61,204 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>wid</t>
   </si>
   <si>
     <t>radar</t>
   </si>
   <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>mlt</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
     <t>strip</t>
   </si>
   <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>mlt</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
     <t>ice</t>
   </si>
   <si>
     <t>est2tex</t>
   </si>
   <si>
+    <t>report</t>
+  </si>
+  <si>
     <t>omega</t>
   </si>
   <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
     <t>panels</t>
   </si>
   <si>
+    <t>discrepancy</t>
+  </si>
+  <si>
     <t>levels</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>pls</t>
+  </si>
+  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>discrepancy</t>
-  </si>
-  <si>
     <t>circular</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>pls</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
     <t>ic</t>
   </si>
   <si>
     <t>cart</t>
   </si>
   <si>
+    <t>dummies</t>
+  </si>
+  <si>
+    <t>concord</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>find</t>
   </si>
   <si>
-    <t>concord</t>
+    <t>index</t>
   </si>
   <si>
     <t>art</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>traces</t>
   </si>
   <si>
     <t>heart</t>
   </si>
   <si>
-    <t>dummies</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
     <t>forest</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>prepar</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>frm</t>
   </si>
   <si>
-    <t>combine</t>
-  </si>
-  <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>kernel</t>
-  </si>
-  <si>
-    <t>prepar</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>sls</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
     <t>crm</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>effects</t>
+    <t>rds</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>mc</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
     <t>bipolar</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>sls</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>head</t>
   </si>
   <si>
     <t>tr</t>
   </si>
   <si>
+    <t>usd</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
     <t>cal</t>
   </si>
   <si>
-    <t>rds</t>
-  </si>
-  <si>
-    <t>head</t>
+    <t>cns</t>
+  </si>
+  <si>
+    <t>umbrella</t>
   </si>
   <si>
     <t>flex</t>
   </si>
   <si>
-    <t>usd</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>umbrella</t>
-  </si>
-  <si>
-    <t>sunflower</t>
+    <t>sqr</t>
+  </si>
+  <si>
+    <t>digits</t>
+  </si>
+  <si>
+    <t>sto</t>
   </si>
   <si>
     <t>switch</t>
   </si>
   <si>
-    <t>digits</t>
-  </si>
-  <si>
-    <t>pipe</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>cns</t>
-  </si>
-  <si>
-    <t>sqr</t>
+    <t>concordance</t>
   </si>
   <si>
     <t>regen</t>
   </si>
   <si>
-    <t>sto</t>
-  </si>
-  <si>
-    <t>concordance</t>
-  </si>
-  <si>
     <t>preparation</t>
   </si>
   <si>
@@ -292,9 +274,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-799</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-799/118302/Prep/conc</t>
   </si>
   <si>
@@ -337,12 +316,6 @@
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>hs6dgt.do</t>
   </si>
   <si>
@@ -374,9 +347,6 @@
   </si>
   <si>
     <t>Master_Prep.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>country-data-2000.do</t>
@@ -558,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D82"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -566,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -592,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -604,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -616,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -628,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -640,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -652,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -664,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -676,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -700,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -712,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -724,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -736,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -748,7 +718,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -760,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -772,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -784,10 +754,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>298</v>
+        <v>525</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D19"/>
     </row>
@@ -796,10 +766,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>378</v>
+        <v>547</v>
       </c>
       <c r="C20">
-        <v>0.1253315657377243</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D20"/>
     </row>
@@ -808,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>420</v>
+        <v>563</v>
       </c>
       <c r="C21">
-        <v>0.13925729691982269</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D21"/>
     </row>
@@ -820,10 +790,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="C22">
-        <v>0.14588859677314758</v>
+        <v>0.18677686154842377</v>
       </c>
       <c r="D22"/>
     </row>
@@ -832,10 +802,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="C23">
-        <v>0.16677719354629517</v>
+        <v>0.18975207209587097</v>
       </c>
       <c r="D23"/>
     </row>
@@ -844,10 +814,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="C24">
-        <v>0.17738726735115051</v>
+        <v>0.19008263945579529</v>
       </c>
       <c r="D24"/>
     </row>
@@ -856,10 +826,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="C25">
-        <v>0.18269230425357819</v>
+        <v>0.19471074640750885</v>
       </c>
       <c r="D25"/>
     </row>
@@ -868,10 +838,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="C26">
-        <v>0.18534483015537262</v>
+        <v>0.20033058524131775</v>
       </c>
       <c r="D26"/>
     </row>
@@ -880,10 +850,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="C27">
-        <v>0.18667109310626984</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D27"/>
     </row>
@@ -892,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="C28">
-        <v>0.18700265884399414</v>
+        <v>0.2072727233171463</v>
       </c>
       <c r="D28"/>
     </row>
@@ -904,10 +874,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="C29">
-        <v>0.18766577541828156</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D29"/>
     </row>
@@ -916,10 +886,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>606</v>
+        <v>657</v>
       </c>
       <c r="C30">
-        <v>0.20092837512493134</v>
+        <v>0.21719008684158325</v>
       </c>
       <c r="D30"/>
     </row>
@@ -928,10 +898,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="C31">
-        <v>0.22513262927532196</v>
+        <v>0.22710743546485901</v>
       </c>
       <c r="D31"/>
     </row>
@@ -940,10 +910,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="C32">
-        <v>0.23010610044002533</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D32"/>
     </row>
@@ -952,10 +922,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="C33">
-        <v>0.23143236339092255</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D33"/>
     </row>
@@ -964,10 +934,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>701</v>
+        <v>732</v>
       </c>
       <c r="C34">
-        <v>0.23242706060409546</v>
+        <v>0.24198347330093384</v>
       </c>
       <c r="D34"/>
     </row>
@@ -976,10 +946,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="C35">
-        <v>0.23342175781726837</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D35"/>
     </row>
@@ -988,10 +958,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="C36">
-        <v>0.24701590836048126</v>
+        <v>0.25057852268218994</v>
       </c>
       <c r="D36"/>
     </row>
@@ -1000,10 +970,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>759</v>
+        <v>852</v>
       </c>
       <c r="C37">
-        <v>0.25165781378746033</v>
+        <v>0.28165289759635925</v>
       </c>
       <c r="D37"/>
     </row>
@@ -1012,10 +982,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>805</v>
+        <v>858</v>
       </c>
       <c r="C38">
-        <v>0.26690980792045593</v>
+        <v>0.28363636136054993</v>
       </c>
       <c r="D38"/>
     </row>
@@ -1024,10 +994,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>839</v>
+        <v>875</v>
       </c>
       <c r="C39">
-        <v>0.27818301320075989</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D39"/>
     </row>
@@ -1036,10 +1006,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>855</v>
+        <v>926</v>
       </c>
       <c r="C40">
-        <v>0.28348806500434875</v>
+        <v>0.30611571669578552</v>
       </c>
       <c r="D40"/>
     </row>
@@ -1048,10 +1018,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>879</v>
+        <v>955</v>
       </c>
       <c r="C41">
-        <v>0.29144561290740967</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D41"/>
     </row>
@@ -1060,10 +1030,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>915</v>
+        <v>978</v>
       </c>
       <c r="C42">
-        <v>0.30338194966316223</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D42"/>
     </row>
@@ -1072,10 +1042,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>942</v>
+        <v>998</v>
       </c>
       <c r="C43">
-        <v>0.31233420968055725</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D43"/>
     </row>
@@ -1084,10 +1054,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>985</v>
+        <v>1011</v>
       </c>
       <c r="C44">
-        <v>0.32659152150154114</v>
+        <v>0.33421486616134644</v>
       </c>
       <c r="D44"/>
     </row>
@@ -1096,10 +1066,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="C45">
-        <v>0.3454907238483429</v>
+        <v>0.34082645177841187</v>
       </c>
       <c r="D45"/>
     </row>
@@ -1108,10 +1078,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1049</v>
+        <v>1101</v>
       </c>
       <c r="C46">
-        <v>0.34781166911125183</v>
+        <v>0.36396694183349609</v>
       </c>
       <c r="D46"/>
     </row>
@@ -1120,10 +1090,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1077</v>
+        <v>1125</v>
       </c>
       <c r="C47">
-        <v>0.35709547996520996</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D47"/>
     </row>
@@ -1132,10 +1102,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1124</v>
+        <v>1226</v>
       </c>
       <c r="C48">
-        <v>0.37267905473709106</v>
+        <v>0.40528926253318787</v>
       </c>
       <c r="D48"/>
     </row>
@@ -1144,10 +1114,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1133</v>
+        <v>1306</v>
       </c>
       <c r="C49">
-        <v>0.37566313147544861</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D49"/>
     </row>
@@ -1156,10 +1126,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1194</v>
+        <v>1309</v>
       </c>
       <c r="C50">
-        <v>0.39588859677314758</v>
+        <v>0.43272727727890015</v>
       </c>
       <c r="D50"/>
     </row>
@@ -1168,10 +1138,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="C51">
-        <v>0.4559018611907959</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D51"/>
     </row>
@@ -1180,10 +1150,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="C52">
-        <v>0.46717506647109985</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D52"/>
     </row>
@@ -1192,10 +1162,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="C53">
-        <v>0.47181698679924011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D53"/>
     </row>
@@ -1204,10 +1174,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1472</v>
+        <v>1497</v>
       </c>
       <c r="C54">
-        <v>0.48806366324424744</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D54"/>
     </row>
@@ -1216,10 +1186,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1476</v>
+        <v>1500</v>
       </c>
       <c r="C55">
-        <v>0.48938992619514465</v>
+        <v>0.49586775898933411</v>
       </c>
       <c r="D55"/>
     </row>
@@ -1228,10 +1198,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1477</v>
+        <v>1564</v>
       </c>
       <c r="C56">
-        <v>0.48972147703170776</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D56"/>
     </row>
@@ -1240,10 +1210,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1553</v>
+        <v>1678</v>
       </c>
       <c r="C57">
-        <v>0.51492041349411011</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D57"/>
     </row>
@@ -1252,10 +1222,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1565</v>
+        <v>1687</v>
       </c>
       <c r="C58">
-        <v>0.51889920234680176</v>
+        <v>0.5576859712600708</v>
       </c>
       <c r="D58"/>
     </row>
@@ -1264,10 +1234,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1605</v>
+        <v>1724</v>
       </c>
       <c r="C59">
-        <v>0.53216183185577393</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D59"/>
     </row>
@@ -1276,10 +1246,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1621</v>
+        <v>1767</v>
       </c>
       <c r="C60">
-        <v>0.53746682405471802</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D60"/>
     </row>
@@ -1288,10 +1258,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1660</v>
+        <v>1780</v>
       </c>
       <c r="C61">
-        <v>0.55039787292480469</v>
+        <v>0.58842974901199341</v>
       </c>
       <c r="D61"/>
     </row>
@@ -1300,10 +1270,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1711</v>
+        <v>1850</v>
       </c>
       <c r="C62">
-        <v>0.56730771064758301</v>
+        <v>0.61157023906707764</v>
       </c>
       <c r="D62"/>
     </row>
@@ -1312,10 +1282,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1755</v>
+        <v>1864</v>
       </c>
       <c r="C63">
-        <v>0.58189654350280762</v>
+        <v>0.61619836091995239</v>
       </c>
       <c r="D63"/>
     </row>
@@ -1324,10 +1294,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1798</v>
+        <v>1925</v>
       </c>
       <c r="C64">
-        <v>0.5961538553237915</v>
+        <v>0.63636362552642822</v>
       </c>
       <c r="D64"/>
     </row>
@@ -1336,10 +1306,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1813</v>
+        <v>1971</v>
       </c>
       <c r="C65">
-        <v>0.60112732648849487</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D65"/>
     </row>
@@ -1348,10 +1318,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1817</v>
+        <v>1975</v>
       </c>
       <c r="C66">
-        <v>0.60245358943939209</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D66"/>
     </row>
@@ -1360,10 +1330,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1826</v>
+        <v>2008</v>
       </c>
       <c r="C67">
-        <v>0.60543763637542725</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D67"/>
     </row>
@@ -1372,10 +1342,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1859</v>
+        <v>2074</v>
       </c>
       <c r="C68">
-        <v>0.61637932062149048</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D68"/>
     </row>
@@ -1384,10 +1354,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1890</v>
+        <v>2137</v>
       </c>
       <c r="C69">
-        <v>0.62665784358978271</v>
+        <v>0.70644629001617432</v>
       </c>
       <c r="D69"/>
     </row>
@@ -1396,10 +1366,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1951</v>
+        <v>2144</v>
       </c>
       <c r="C70">
-        <v>0.64688330888748169</v>
+        <v>0.70876032114028931</v>
       </c>
       <c r="D70"/>
     </row>
@@ -1408,10 +1378,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1963</v>
+        <v>2218</v>
       </c>
       <c r="C71">
-        <v>0.65086209774017334</v>
+        <v>0.73322314023971558</v>
       </c>
       <c r="D71"/>
     </row>
@@ -1420,10 +1390,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2004</v>
+        <v>2259</v>
       </c>
       <c r="C72">
-        <v>0.66445624828338623</v>
+        <v>0.74677687883377075</v>
       </c>
       <c r="D72"/>
     </row>
@@ -1432,10 +1402,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2133</v>
+        <v>2263</v>
       </c>
       <c r="C73">
-        <v>0.70722812414169312</v>
+        <v>0.74809914827346802</v>
       </c>
       <c r="D73"/>
     </row>
@@ -1444,10 +1414,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2153</v>
+        <v>2282</v>
       </c>
       <c r="C74">
-        <v>0.7138594388961792</v>
+        <v>0.75438016653060913</v>
       </c>
       <c r="D74"/>
     </row>
@@ -1456,10 +1426,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2217</v>
+        <v>2287</v>
       </c>
       <c r="C75">
-        <v>0.73507958650588989</v>
+        <v>0.75603306293487549</v>
       </c>
       <c r="D75"/>
     </row>
@@ -1468,10 +1438,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2239</v>
+        <v>2455</v>
       </c>
       <c r="C76">
-        <v>0.7423740029335022</v>
+        <v>0.81157022714614868</v>
       </c>
       <c r="D76"/>
     </row>
@@ -1480,10 +1450,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2332</v>
+        <v>2540</v>
       </c>
       <c r="C77">
-        <v>0.77320957183837891</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D77"/>
     </row>
@@ -1492,10 +1462,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2365</v>
+        <v>2785</v>
       </c>
       <c r="C78">
-        <v>0.78415119647979736</v>
+        <v>0.92066115140914917</v>
       </c>
       <c r="D78"/>
     </row>
@@ -1504,10 +1474,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2367</v>
+        <v>2806</v>
       </c>
       <c r="C79">
-        <v>0.78481429815292358</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D79"/>
     </row>
@@ -1516,10 +1486,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2375</v>
+        <v>2849</v>
       </c>
       <c r="C80">
-        <v>0.78746682405471802</v>
+        <v>0.94181817770004272</v>
       </c>
       <c r="D80"/>
     </row>
@@ -1528,10 +1498,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2395</v>
+        <v>2865</v>
       </c>
       <c r="C81">
-        <v>0.7940981388092041</v>
+        <v>0.94710743427276611</v>
       </c>
       <c r="D81"/>
     </row>
@@ -1540,84 +1510,12 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2430</v>
+        <v>2936</v>
       </c>
       <c r="C82">
-        <v>0.80570292472839355</v>
+        <v>0.97057849168777466</v>
       </c>
       <c r="D82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>2595</v>
-      </c>
-      <c r="C83">
-        <v>0.86041116714477539</v>
-      </c>
-      <c r="D83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>2612</v>
-      </c>
-      <c r="C84">
-        <v>0.86604773998260498</v>
-      </c>
-      <c r="D84"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>2704</v>
-      </c>
-      <c r="C85">
-        <v>0.89655172824859619</v>
-      </c>
-      <c r="D85"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>2714</v>
-      </c>
-      <c r="C86">
-        <v>0.89986735582351685</v>
-      </c>
-      <c r="D86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>2761</v>
-      </c>
-      <c r="C87">
-        <v>0.91545093059539795</v>
-      </c>
-      <c r="D87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>2928</v>
-      </c>
-      <c r="C88">
-        <v>0.97082227468490601</v>
-      </c>
-      <c r="D88"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1625,495 +1523,471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B58"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
